--- a/tables/Items.xlsx
+++ b/tables/Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS STUDIO PROJECTS\beforeCrisis\Before Crisis\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBCC49A-EDFD-4A69-BCF1-3928E4DD0BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A66A276-1A6E-4C26-91D5-6C58508DF98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="930" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3315" yWindow="2610" windowWidth="16290" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -100,12 +100,6 @@
   </si>
   <si>
     <t>Adrenaline</t>
-  </si>
-  <si>
-    <t>Remark</t>
-  </si>
-  <si>
-    <t>3 turns</t>
   </si>
   <si>
     <t>Lvl</t>
@@ -450,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H11" sqref="H1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +458,7 @@
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,16 +475,13 @@
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -513,7 +504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -536,7 +527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -559,7 +550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -582,7 +573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -605,7 +596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>11</v>
       </c>
@@ -628,7 +619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>12</v>
       </c>
@@ -651,7 +642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -674,7 +665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>21</v>
       </c>
@@ -697,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>22</v>
       </c>
@@ -719,18 +710,15 @@
       <c r="G11">
         <v>3</v>
       </c>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
